--- a/envRS_datadict.xlsx
+++ b/envRS_datadict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eilee\Desktop\PhD\Year 3\envRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB0558A-1F3A-42D7-B351-D75E4B32EE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AF86CD-1F9B-4BB7-B61F-35B24F64717E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37A72D85-F0C6-4E36-B57B-427F300141F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37A72D85-F0C6-4E36-B57B-427F300141F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="201">
   <si>
     <t>RISK FACTOR</t>
   </si>
@@ -188,33 +188,6 @@
     <t>Serious injury/accident</t>
   </si>
   <si>
-    <t>Early life stress:</t>
-  </si>
-  <si>
-    <t>Emotional neglect</t>
-  </si>
-  <si>
-    <t>mnbs_ss_mean_all</t>
-  </si>
-  <si>
-    <t>ce_y_mnbs</t>
-  </si>
-  <si>
-    <t>mnbs_ss_monitor_supervision</t>
-  </si>
-  <si>
-    <t>mean from 4-point likert scale</t>
-  </si>
-  <si>
-    <t>Parental involvement: monitoring/supervision</t>
-  </si>
-  <si>
-    <t>Parental involvement: education/support</t>
-  </si>
-  <si>
-    <t>mnbs_ss_ed_support</t>
-  </si>
-  <si>
     <t>Healthy diet: fruits</t>
   </si>
   <si>
@@ -248,12 +221,6 @@
     <t>[parent reported on youth, youth then confirmed] no description from ABCD, but this should be summary score of veg consumption, excluding potatoes</t>
   </si>
   <si>
-    <t>[youth-report] low scores = less involved. mean of Q8-10, 0=never, 1=almost never, 2=sometimes, 3=a lot</t>
-  </si>
-  <si>
-    <t>[youth-report] low scores = neglectful. mean of Q1-4, 0=never, 1=almost never, 2=sometimes, 3=a lot</t>
-  </si>
-  <si>
     <t>[parent-report] witnessed the grownups in the home push, shove or hit one another</t>
   </si>
   <si>
@@ -317,9 +284,6 @@
     <t>[custom] followed CDC growth charts protocol for calculating modified z-scores and identifying BMIs in the plausible range</t>
   </si>
   <si>
-    <t>Socioeconomic status:</t>
-  </si>
-  <si>
     <t>Income</t>
   </si>
   <si>
@@ -383,9 +347,6 @@
     <t>deprivation index percentile</t>
   </si>
   <si>
-    <t>for address 1</t>
-  </si>
-  <si>
     <t>nsc_p_ss_mean_3_items</t>
   </si>
   <si>
@@ -422,9 +383,6 @@
     <t>days active in past week</t>
   </si>
   <si>
-    <t>[youth reported] active for at least 60 min per day</t>
-  </si>
-  <si>
     <t>physical_activity1_y</t>
   </si>
   <si>
@@ -452,9 +410,6 @@
     <t>[youth reported] video game addiction scale</t>
   </si>
   <si>
-    <t>Internet addiction:</t>
-  </si>
-  <si>
     <t>screentime_smq_soc_med_hr</t>
   </si>
   <si>
@@ -552,6 +507,138 @@
   </si>
   <si>
     <t>[parent self-reported] depressive problems ASR subscale (DSM5-oriented)</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>substance use</t>
+  </si>
+  <si>
+    <t>mental health</t>
+  </si>
+  <si>
+    <t>trauma</t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>socioeconomic</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>victimization</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>for address 1. higher = more deprived</t>
+  </si>
+  <si>
+    <t>bkfs_fruit</t>
+  </si>
+  <si>
+    <t>bkfs_veg</t>
+  </si>
+  <si>
+    <t>bkfs_fiber</t>
+  </si>
+  <si>
+    <t>fam_conflict</t>
+  </si>
+  <si>
+    <t>p_monitoring</t>
+  </si>
+  <si>
+    <t>p_depression</t>
+  </si>
+  <si>
+    <t>INCLUDED?</t>
+  </si>
+  <si>
+    <t>depRS name (if different)</t>
+  </si>
+  <si>
+    <t>weightcontrol_ksads</t>
+  </si>
+  <si>
+    <t>eff_control</t>
+  </si>
+  <si>
+    <t>days_active</t>
+  </si>
+  <si>
+    <t>[youth reported] active day = active for at least 60 min per day</t>
+  </si>
+  <si>
+    <t>chronotype</t>
+  </si>
+  <si>
+    <t>area_depriv</t>
+  </si>
+  <si>
+    <t>comm_safety</t>
+  </si>
+  <si>
+    <t>tlfb_use_days</t>
+  </si>
+  <si>
+    <t>tobacco_puff</t>
+  </si>
+  <si>
+    <t>witness_comm_violence</t>
+  </si>
+  <si>
+    <t>death_loved_one</t>
+  </si>
+  <si>
+    <t>witness_dv</t>
+  </si>
+  <si>
+    <t>life_events</t>
+  </si>
+  <si>
+    <t>discrimination</t>
+  </si>
+  <si>
+    <t>cyberbullying</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Sex at birth</t>
+  </si>
+  <si>
+    <t>demo_sex_v2</t>
+  </si>
+  <si>
+    <t>demo_gender_id_v2</t>
+  </si>
+  <si>
+    <t>birthsex</t>
+  </si>
+  <si>
+    <t>M / F / GNC</t>
+  </si>
+  <si>
+    <t>[parent reported] gender identity. M = Mcis + Mtrans; F = Fcis + Ftrans; GNC = GNC + "Different". GNC individuals unfortunately excluded from analyses due to small sample size</t>
+  </si>
+  <si>
+    <t>M / F / Intersex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[parent reported] sex at birth. Intersex individuals unfortunately excluded due to small sample size </t>
   </si>
 </sst>
 </file>
@@ -645,11 +732,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -662,20 +746,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,763 +1093,1057 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C22E8D-E591-49C4-9732-3DC9659BEDDB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D21" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="F21" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D23" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F23" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="G23" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="G25" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F26" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="G26" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D28" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="F28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="F29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D32" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F32" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D33" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D34" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="F34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="F35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="F39" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D40" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>109</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G54">
+    <sortCondition ref="G1:G54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/envRS_datadict.xlsx
+++ b/envRS_datadict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eilee\Desktop\PhD\Year 3\envRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AF86CD-1F9B-4BB7-B61F-35B24F64717E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427C1472-B52B-45C5-AABA-95DB325FB17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37A72D85-F0C6-4E36-B57B-427F300141F0}"/>
+    <workbookView xWindow="11450" yWindow="0" windowWidth="7840" windowHeight="10170" xr2:uid="{37A72D85-F0C6-4E36-B57B-427F300141F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="205">
   <si>
     <t>RISK FACTOR</t>
   </si>
@@ -563,9 +563,6 @@
     <t>p_depression</t>
   </si>
   <si>
-    <t>INCLUDED?</t>
-  </si>
-  <si>
     <t>depRS name (if different)</t>
   </si>
   <si>
@@ -639,6 +636,21 @@
   </si>
   <si>
     <t xml:space="preserve">[parent reported] sex at birth. Intersex individuals unfortunately excluded due to small sample size </t>
+  </si>
+  <si>
+    <t>demographics</t>
+  </si>
+  <si>
+    <t>AT BASELINE?</t>
+  </si>
+  <si>
+    <t>AT Y2?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -751,12 +763,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,8 +1107,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1109,6 +1122,7 @@
     <col min="6" max="6" width="70.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.54296875" customWidth="1"/>
     <col min="8" max="8" width="12.90625" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1122,7 +1136,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>89</v>
@@ -1134,964 +1148,1118 @@
         <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>175</v>
+        <v>201</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9"/>
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="F36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="F38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="D41" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40" s="11" t="s">
+      <c r="E41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="G41" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="H41" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
@@ -2145,5 +2313,6 @@
     <sortCondition ref="G1:G54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/envRS_datadict.xlsx
+++ b/envRS_datadict.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eilee\Desktop\PhD\Year 3\envRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427C1472-B52B-45C5-AABA-95DB325FB17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A97811-EC5C-4AE6-8F21-DB8181A26B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11450" yWindow="0" windowWidth="7840" windowHeight="10170" xr2:uid="{37A72D85-F0C6-4E36-B57B-427F300141F0}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{37A72D85-F0C6-4E36-B57B-427F300141F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="included in ABCD" sheetId="1" r:id="rId1"/>
+    <sheet name="not included in ABCD" sheetId="2" r:id="rId2"/>
+    <sheet name="review notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="342">
   <si>
     <t>RISK FACTOR</t>
   </si>
@@ -329,12 +331,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>ethnicity</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>Area deprivation</t>
   </si>
   <si>
@@ -455,9 +451,6 @@
     <t>mh_p_le</t>
   </si>
   <si>
-    <t>[parent reported] total number of life events in past year which child had little/no control over. Youth-report also exists.</t>
-  </si>
-  <si>
     <t>[parent reported] neighbourhood safety, lower = less safe ie. worse. 1=strongly disagree, 2=disagree, 3=half and half, 4=agree, 5=strongly agree. Youth report "my neighbourhood is safe from crime" (ce_y_nsc/neighborhood_crime_y) also exists</t>
   </si>
   <si>
@@ -651,6 +644,426 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>IDENTIFIED BUT NOT INCLUDED</t>
+  </si>
+  <si>
+    <t>Attainment of developmental tasks?</t>
+  </si>
+  <si>
+    <t>peer group - belonging, social status, not victimized; friendship - have close friend, number of friends; romantic relationships - having a relationship, previous relationships, sexual experience; autonomy - attitudinal, functional and emotional; career preparation - academic achievement; identity - amount of exploration and commitment making; value system - moral judgement; socially responsible - prosocial behaviour, civic engagement; gender role acquisition - scores ; body acceptance - positive body image, satisfaction</t>
+  </si>
+  <si>
+    <t>I think there are elements in here that do tie into existing risk factors already and combined with the fact that internalizing isn't examined by itself it might be better to use this to backup other choices, especially as it is quite nonspecific</t>
+  </si>
+  <si>
+    <t>Pinquart 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline MH problems </t>
+  </si>
+  <si>
+    <t>SDQ conduct, KSADS ADHD</t>
+  </si>
+  <si>
+    <t>might be difficult to include here? Though they said excluding mood disorders so could just include ADHD/ASD/conduct disorder??</t>
+  </si>
+  <si>
+    <t>Pedersen 2023</t>
+  </si>
+  <si>
+    <t>cardiorespiratory fitness (objectively measured via pacer test etc)</t>
+  </si>
+  <si>
+    <t>Empathy</t>
+  </si>
+  <si>
+    <t>Empathy quotient questionnaire, interpersonal reactivity index, how I feel in different situations, perspective-taking task, basic empathy scale etc etc</t>
+  </si>
+  <si>
+    <t>Executive function</t>
+  </si>
+  <si>
+    <t>infant temperament</t>
+  </si>
+  <si>
+    <t>Maternal childhood adversity</t>
+  </si>
+  <si>
+    <t>negative future-related thinking (eg hopelessness, optimism/pessimism, control)</t>
+  </si>
+  <si>
+    <t>Parental educational involvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empathy quotient questionnaire, interpersonal reactivity index, how I feel in different situations, perspective-taking task, basic empathy scale etc </t>
+  </si>
+  <si>
+    <t>MEASURES</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>REVIEW(S)</t>
+  </si>
+  <si>
+    <t>in ABCD?</t>
+  </si>
+  <si>
+    <t>self-report in past month, CDDR over past year</t>
+  </si>
+  <si>
+    <t>age interaction</t>
+  </si>
+  <si>
+    <t>Cairns et al 2014</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>self-report how much in single episode</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>self-reported bullying victimisation</t>
+  </si>
+  <si>
+    <t>dose-response between "sometimes - &lt;once a month" and "frequently - at least once a month" bullied</t>
+  </si>
+  <si>
+    <t>Moore et al 2017, Song et al 2024</t>
+  </si>
+  <si>
+    <t>self-report how many times in lifetime, DISC in past year</t>
+  </si>
+  <si>
+    <t>gender interaction</t>
+  </si>
+  <si>
+    <t>not going to be available in ABCD I'm almost sure</t>
+  </si>
+  <si>
+    <t>Tacchi 2019</t>
+  </si>
+  <si>
+    <t>not available</t>
+  </si>
+  <si>
+    <t>Circadian preference (eveningness)</t>
+  </si>
+  <si>
+    <t>questionnaires (CQ, CSM, MEQ, MESC), midpoint of sleep from actigraphy</t>
+  </si>
+  <si>
+    <t>longitudinal evidence mixed</t>
+  </si>
+  <si>
+    <t>Cheung et al 2023</t>
+  </si>
+  <si>
+    <t>exposure to community violence, neighbourhood safety</t>
+  </si>
+  <si>
+    <t>Stirling et al 2015</t>
+  </si>
+  <si>
+    <t>some simple as yes/no</t>
+  </si>
+  <si>
+    <t>does bullying questionnaire ask about cyberbullying?</t>
+  </si>
+  <si>
+    <t>Li 2024</t>
+  </si>
+  <si>
+    <t>Yu 2024; LeMoult 2020</t>
+  </si>
+  <si>
+    <t>childrens eating attitudes test, dutch eating behavior questionnaire</t>
+  </si>
+  <si>
+    <t>Discrimination (minority ethnicity)</t>
+  </si>
+  <si>
+    <t>self-report and community measures of minority ethnicity/discrimination</t>
+  </si>
+  <si>
+    <t>Domestic violence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. parental job changes, changes in family structure, moving house </t>
+  </si>
+  <si>
+    <t>definition of EU is broad - perhaps hard to categorise what counts as uncertainty - perhaps better included with early life stress</t>
+  </si>
+  <si>
+    <t>Shao et al 2024</t>
+  </si>
+  <si>
+    <t>focus on correlation</t>
+  </si>
+  <si>
+    <t>Yan 2021</t>
+  </si>
+  <si>
+    <t>All task-based e.g.: wisconsin card sort, verbal-fluency, dimensional change card sort, flanker, visuospatial working memory, tower of hanoi, span tasks</t>
+  </si>
+  <si>
+    <t>2 studies assessed adolescent internalizing with no sig. association, but sig. association with concurrent measure and middle-childhood. Question is if we restrict to longitudinal but that is prob too much work</t>
+  </si>
+  <si>
+    <t>Stucke 2024</t>
+  </si>
+  <si>
+    <t>Not explicitly - overlap with effortful control? Read more about that</t>
+  </si>
+  <si>
+    <t>Fiber intake</t>
+  </si>
+  <si>
+    <t>Food frequency questionnaire</t>
+  </si>
+  <si>
+    <t>3 children studies - check if BKFS has a fibre total but I do already have fruit and veg - maybe just add cereal?</t>
+  </si>
+  <si>
+    <t>Saghafian 2023</t>
+  </si>
+  <si>
+    <t>Healthy diet</t>
+  </si>
+  <si>
+    <t>self-report how many vegetables, food frequency questionnaire</t>
+  </si>
+  <si>
+    <t>fruit veg and fiber as mentioned above</t>
+  </si>
+  <si>
+    <t>self-report (trying MDMA), CIDI in past 12 months</t>
+  </si>
+  <si>
+    <t>Internet addiction</t>
+  </si>
+  <si>
+    <t>social media addiction, game addiction, internet addiction, mobile phone addiction</t>
+  </si>
+  <si>
+    <t>subjects aged 10-24, a lot of secondary school and college students</t>
+  </si>
+  <si>
+    <t>Ye et al 2023</t>
+  </si>
+  <si>
+    <t>Interparental conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not named in review - included articles used parent-reported: Conflicts and Problem-Solving Scales; Potential Family Conflict questionnaire; Domestic Conflict Inventory. Child-report: Children’s Perception of Interparental Conflict Scale </t>
+  </si>
+  <si>
+    <t>6 sub-variables - frequency, conflict styles (overt, covert, cooperative, avoidant, withdrawn). Informant interaction (largest correlation for child).</t>
+  </si>
+  <si>
+    <t>Ran et al 2021</t>
+  </si>
+  <si>
+    <t>Y (family conflict)</t>
+  </si>
+  <si>
+    <t>CTQ</t>
+  </si>
+  <si>
+    <t>pooled internalising and externalising again in behavioural/emotional symptoms. Focuses on mediators/moderators</t>
+  </si>
+  <si>
+    <t>Ma 2022</t>
+  </si>
+  <si>
+    <t>maternal depression</t>
+  </si>
+  <si>
+    <t>BDI, SCL-90-R, CES-D</t>
+  </si>
+  <si>
+    <t>mediates the above</t>
+  </si>
+  <si>
+    <t>adolescent coping orientation for problem experiences (get angry and yell at people when facing difficulties), behavioural inventory of strategic control (gut feeling), coping actions scale (try not to think about it)</t>
+  </si>
+  <si>
+    <t>high heterogeneity</t>
+  </si>
+  <si>
+    <t>low hope, low optimism and high hopelessness sig after adjusting for baseline depression but I think this might be too correlated with depression for this study. also reciprocal relationship, idk how socio-environmental it is?</t>
+  </si>
+  <si>
+    <t>Tang 2024</t>
+  </si>
+  <si>
+    <t>is this linked to negative coping strategies?</t>
+  </si>
+  <si>
+    <t>Home-Based Involvement Scale, Academic Socialization Scale, School-Based Involvement Scale, Parental Involvement Behavior Questionnaire (C-PIBQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes overall, school, academic socialization - think homework etc etc </t>
+  </si>
+  <si>
+    <t>Liu et al 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parenting behaviour </t>
+  </si>
+  <si>
+    <t>CRPBI (subscales), parental monitoring, youth self report</t>
+  </si>
+  <si>
+    <t>review looked at multiple domains often using CRPBI subscales</t>
+  </si>
+  <si>
+    <t>Manuele et al 2023</t>
+  </si>
+  <si>
+    <t>parental monitoring</t>
+  </si>
+  <si>
+    <t>Peer victimization</t>
+  </si>
+  <si>
+    <t>already included I think</t>
+  </si>
+  <si>
+    <t>Christina et al 2021; Mullan 2023</t>
+  </si>
+  <si>
+    <t>PAQ (physical activity questionnaire), number of times per week, frequency past month, moderate to vigorous physical activity</t>
+  </si>
+  <si>
+    <t>Korczak et al 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self-report (6 month, last year) consumption of alcohol/tobacco/cannabis/other substances </t>
+  </si>
+  <si>
+    <t>self-regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attention control scale, behaviour problems index, CBCL subscales self-regulation, impulsivity etc), EATQ (activation control, attention control, inhibitory control, anger/frustration, effortful control), </t>
+  </si>
+  <si>
+    <t>self-regulation defined as: the ability to inhibit dominant impulses to modify thought, feeling and behavior</t>
+  </si>
+  <si>
+    <t>greater effect size when measured by interview</t>
+  </si>
+  <si>
+    <t>self-report enough sleep, hours of sleep for weekdays in last month</t>
+  </si>
+  <si>
+    <t>Cairns et al 2014, Short et al 2020</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>frequency of use, instant messaging, social support seeking online</t>
+  </si>
+  <si>
+    <t>unclear what period frequency of use is measured. Social comparison and feedback-seeking via social media had stronger correlations</t>
+  </si>
+  <si>
+    <t>Socioeconomic status</t>
+  </si>
+  <si>
+    <t>parental income, employment status, occupational classification, education</t>
+  </si>
+  <si>
+    <t>Lemstra et al 2008; Yu 2024; LeMoult 2020</t>
+  </si>
+  <si>
+    <t>needed food, income, parental education, area deprivation</t>
+  </si>
+  <si>
+    <t>Weight (BMI)</t>
+  </si>
+  <si>
+    <t>self-report height and weight, objectively measured height and weight</t>
+  </si>
+  <si>
+    <t>socioecological model level</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">individual </t>
+  </si>
+  <si>
+    <t>interpersonal</t>
+  </si>
+  <si>
+    <t>interpersonal/community level</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>physical characteristics</t>
+  </si>
+  <si>
+    <t>lifestyle factors</t>
+  </si>
+  <si>
+    <t>traumatic experiences</t>
+  </si>
+  <si>
+    <t>cognitive skills</t>
+  </si>
+  <si>
+    <t>inclusion criteria was mean age at follow-up of 24 or younger, self-report (ever smoked), KSADS (ever tried cigarette)</t>
+  </si>
+  <si>
+    <t>Chaplin 2023, cairns</t>
+  </si>
+  <si>
+    <t>not sure definition of smoking here but I think it's regular smoking? High heterogeneity  from cairns but not in chaplin sensitivity</t>
+  </si>
+  <si>
+    <t>this wasn't sig. by itself. Remove</t>
+  </si>
+  <si>
+    <t>[parent reported] total number of life events in past year which child had little/no control over: [ple_died_p], [ple_injured_p], [ple_crime_p], [ple_friend_p], [ple_friend_injur_p], [ple_financial_p], [ple_sud_p], [ple_ill_p], [ple_injur_p], [ple_argue_p], [ple_job_p], [ple_away_p], [ple_arrest_p], [ple_friend_died_p], [ple_mh_p], [ple_sib_p], [ple_victim_p], [ple_separ_p], [ple_law_p], [ple_school_p], [ple_move_p], [ple_jail_p], [ple_step_p], [ple_new_job_p], [ple_new_sib_p]. Youth-report also exists.</t>
+  </si>
+  <si>
+    <t>Cairns et al 2014, Mannan et al 2016, Chaplin</t>
+  </si>
+  <si>
+    <t>Robson et al 2020; Kostyrka-Allcho 2020</t>
+  </si>
+  <si>
+    <t>McCrae et al 2017, Liu 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link with media use in cairns </t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Peer</t>
+  </si>
+  <si>
+    <t>Peer?</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>misc</t>
   </si>
 </sst>
 </file>
@@ -744,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -766,9 +1179,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,11 +1532,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C22E8D-E591-49C4-9732-3DC9659BEDDB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,10 +1549,9 @@
     <col min="6" max="6" width="70.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.54296875" customWidth="1"/>
     <col min="8" max="8" width="12.90625" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1562,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>89</v>
@@ -1145,1123 +1571,1144 @@
         <v>90</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" t="s">
+        <v>201</v>
+      </c>
+      <c r="I13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B29" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C31" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D32" t="s">
         <v>29</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>185</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>16</v>
+        <v>155</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" t="s">
+        <v>200</v>
+      </c>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>46</v>
+        <v>159</v>
+      </c>
+      <c r="H33" t="s">
+        <v>200</v>
+      </c>
+      <c r="I33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>49</v>
+        <v>156</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
         <v>166</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38"/>
-      <c r="C38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" t="s">
         <v>200</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>201</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I41" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2269,7 +2716,7 @@
       <c r="F42" s="1"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2277,7 +2724,7 @@
       <c r="F43" s="1"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2285,7 +2732,7 @@
       <c r="F44" s="1"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2293,24 +2740,1016 @@
       <c r="F45" s="1"/>
       <c r="G45"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G54">
-    <sortCondition ref="G1:G54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J45">
+    <sortCondition descending="1" ref="H34:H45"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C4499-083E-41C8-8741-BF855C7CD617}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="97.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2814544-A32F-4335-97C7-842097C9E315}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A39" sqref="A39"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10" style="15" customWidth="1"/>
+    <col min="4" max="4" width="42.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G42" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
+    <sortCondition ref="B1:B42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/envRS_datadict.xlsx
+++ b/envRS_datadict.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eilee\Desktop\PhD\Year 3\envRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A97811-EC5C-4AE6-8F21-DB8181A26B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCE03E4-B55F-4CDD-91C3-3DCF26D85860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{37A72D85-F0C6-4E36-B57B-427F300141F0}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37A72D85-F0C6-4E36-B57B-427F300141F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="included in ABCD" sheetId="1" r:id="rId1"/>
-    <sheet name="not included in ABCD" sheetId="2" r:id="rId2"/>
+    <sheet name="included in envRS" sheetId="1" r:id="rId1"/>
+    <sheet name="not included in envRS" sheetId="2" r:id="rId2"/>
     <sheet name="review notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="320">
   <si>
     <t>RISK FACTOR</t>
   </si>
@@ -103,33 +103,15 @@
     <t>su_y_tlfb</t>
   </si>
   <si>
-    <t>tlfb_cal_scr_alc_ud</t>
-  </si>
-  <si>
     <t>ABCD TABLE</t>
   </si>
   <si>
-    <t>number of alcohol use days</t>
-  </si>
-  <si>
-    <t>tlfb_cal_scr_alc_max</t>
-  </si>
-  <si>
-    <t>max units of alcohol consumed in one sitting</t>
-  </si>
-  <si>
-    <t>su_tlfb_cal_scr_mj_days_yr</t>
-  </si>
-  <si>
     <t>tlfb_cal_scr_num_events</t>
   </si>
   <si>
     <t>0 (no) / 1 (yes)</t>
   </si>
   <si>
-    <t>illicit</t>
-  </si>
-  <si>
     <t>su_y_sui</t>
   </si>
   <si>
@@ -208,18 +190,9 @@
     <t>bkfs_vegnopot_ce</t>
   </si>
   <si>
-    <t>Healthy diet: fiber</t>
-  </si>
-  <si>
-    <t>bkfs_dt_fibe</t>
-  </si>
-  <si>
     <t>[parent reported on youth, youth then confirmed] no description from ABCD, but this should be summary score of fruit consumption</t>
   </si>
   <si>
-    <t>[parent reported on youth, youth then confirmed] no description from ABCD, but this seems like it's a measure of dietary fiber</t>
-  </si>
-  <si>
     <t>[parent reported on youth, youth then confirmed] no description from ABCD, but this should be summary score of veg consumption, excluding potatoes</t>
   </si>
   <si>
@@ -244,21 +217,9 @@
     <t>[parent-report] endorsed any of the following: ksads_ptsd_raw_767_p, ksads_ptsd_raw_768_p, ksads_ptsd_raw_769_p</t>
   </si>
   <si>
-    <t>number of cannabis use (any type) days</t>
-  </si>
-  <si>
-    <t>suppress_pr</t>
-  </si>
-  <si>
-    <t>mh_y_erq</t>
-  </si>
-  <si>
     <t>prorated summary score</t>
   </si>
   <si>
-    <t>prorated summary score of 5-point likert scale</t>
-  </si>
-  <si>
     <t>sleep_hrs</t>
   </si>
   <si>
@@ -382,12 +343,6 @@
     <t>physical_activity1_y</t>
   </si>
   <si>
-    <t>soc_media_add</t>
-  </si>
-  <si>
-    <t>nt_y_st</t>
-  </si>
-  <si>
     <t>[youth reported]</t>
   </si>
   <si>
@@ -400,18 +355,9 @@
     <t>Social media addiction</t>
   </si>
   <si>
-    <t>video_game_add</t>
-  </si>
-  <si>
     <t>[youth reported] video game addiction scale</t>
   </si>
   <si>
-    <t>screentime_smq_soc_med_hr</t>
-  </si>
-  <si>
-    <t>hours spent on social media (0-23)</t>
-  </si>
-  <si>
     <t>[youth reported] summing relational (peq_ss_relational_victim) + reputational (peq_ss_reputation_victim) + overt (peq_ss_overt_victim) bullying scales</t>
   </si>
   <si>
@@ -526,9 +472,6 @@
     <t>physical</t>
   </si>
   <si>
-    <t>internet</t>
-  </si>
-  <si>
     <t>victimization</t>
   </si>
   <si>
@@ -544,9 +487,6 @@
     <t>bkfs_veg</t>
   </si>
   <si>
-    <t>bkfs_fiber</t>
-  </si>
-  <si>
     <t>fam_conflict</t>
   </si>
   <si>
@@ -655,12 +595,6 @@
     <t>peer group - belonging, social status, not victimized; friendship - have close friend, number of friends; romantic relationships - having a relationship, previous relationships, sexual experience; autonomy - attitudinal, functional and emotional; career preparation - academic achievement; identity - amount of exploration and commitment making; value system - moral judgement; socially responsible - prosocial behaviour, civic engagement; gender role acquisition - scores ; body acceptance - positive body image, satisfaction</t>
   </si>
   <si>
-    <t>I think there are elements in here that do tie into existing risk factors already and combined with the fact that internalizing isn't examined by itself it might be better to use this to backup other choices, especially as it is quite nonspecific</t>
-  </si>
-  <si>
-    <t>Pinquart 2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">baseline MH problems </t>
   </si>
   <si>
@@ -736,9 +670,6 @@
     <t>dose-response between "sometimes - &lt;once a month" and "frequently - at least once a month" bullied</t>
   </si>
   <si>
-    <t>Moore et al 2017, Song et al 2024</t>
-  </si>
-  <si>
     <t>self-report how many times in lifetime, DISC in past year</t>
   </si>
   <si>
@@ -799,9 +730,6 @@
     <t xml:space="preserve">e.g. parental job changes, changes in family structure, moving house </t>
   </si>
   <si>
-    <t>definition of EU is broad - perhaps hard to categorise what counts as uncertainty - perhaps better included with early life stress</t>
-  </si>
-  <si>
     <t>Shao et al 2024</t>
   </si>
   <si>
@@ -859,30 +787,6 @@
     <t>Ye et al 2023</t>
   </si>
   <si>
-    <t>Interparental conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not named in review - included articles used parent-reported: Conflicts and Problem-Solving Scales; Potential Family Conflict questionnaire; Domestic Conflict Inventory. Child-report: Children’s Perception of Interparental Conflict Scale </t>
-  </si>
-  <si>
-    <t>6 sub-variables - frequency, conflict styles (overt, covert, cooperative, avoidant, withdrawn). Informant interaction (largest correlation for child).</t>
-  </si>
-  <si>
-    <t>Ran et al 2021</t>
-  </si>
-  <si>
-    <t>Y (family conflict)</t>
-  </si>
-  <si>
-    <t>CTQ</t>
-  </si>
-  <si>
-    <t>pooled internalising and externalising again in behavioural/emotional symptoms. Focuses on mediators/moderators</t>
-  </si>
-  <si>
-    <t>Ma 2022</t>
-  </si>
-  <si>
     <t>maternal depression</t>
   </si>
   <si>
@@ -907,39 +811,12 @@
     <t>is this linked to negative coping strategies?</t>
   </si>
   <si>
-    <t>Home-Based Involvement Scale, Academic Socialization Scale, School-Based Involvement Scale, Parental Involvement Behavior Questionnaire (C-PIBQ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">includes overall, school, academic socialization - think homework etc etc </t>
-  </si>
-  <si>
-    <t>Liu et al 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parenting behaviour </t>
   </si>
   <si>
-    <t>CRPBI (subscales), parental monitoring, youth self report</t>
-  </si>
-  <si>
-    <t>review looked at multiple domains often using CRPBI subscales</t>
-  </si>
-  <si>
-    <t>Manuele et al 2023</t>
-  </si>
-  <si>
     <t>parental monitoring</t>
   </si>
   <si>
-    <t>Peer victimization</t>
-  </si>
-  <si>
-    <t>already included I think</t>
-  </si>
-  <si>
-    <t>Christina et al 2021; Mullan 2023</t>
-  </si>
-  <si>
     <t>PAQ (physical activity questionnaire), number of times per week, frequency past month, moderate to vigorous physical activity</t>
   </si>
   <si>
@@ -1006,9 +883,6 @@
     <t>interpersonal</t>
   </si>
   <si>
-    <t>interpersonal/community level</t>
-  </si>
-  <si>
     <t>subcategory</t>
   </si>
   <si>
@@ -1033,37 +907,97 @@
     <t>not sure definition of smoking here but I think it's regular smoking? High heterogeneity  from cairns but not in chaplin sensitivity</t>
   </si>
   <si>
-    <t>this wasn't sig. by itself. Remove</t>
-  </si>
-  <si>
     <t>[parent reported] total number of life events in past year which child had little/no control over: [ple_died_p], [ple_injured_p], [ple_crime_p], [ple_friend_p], [ple_friend_injur_p], [ple_financial_p], [ple_sud_p], [ple_ill_p], [ple_injur_p], [ple_argue_p], [ple_job_p], [ple_away_p], [ple_arrest_p], [ple_friend_died_p], [ple_mh_p], [ple_sib_p], [ple_victim_p], [ple_separ_p], [ple_law_p], [ple_school_p], [ple_move_p], [ple_jail_p], [ple_step_p], [ple_new_job_p], [ple_new_sib_p]. Youth-report also exists.</t>
   </si>
   <si>
     <t>Cairns et al 2014, Mannan et al 2016, Chaplin</t>
   </si>
   <si>
-    <t>Robson et al 2020; Kostyrka-Allcho 2020</t>
-  </si>
-  <si>
     <t>McCrae et al 2017, Liu 2022</t>
   </si>
   <si>
     <t xml:space="preserve">link with media use in cairns </t>
   </si>
   <si>
-    <t>parent</t>
-  </si>
-  <si>
     <t>Peer</t>
   </si>
   <si>
-    <t>Peer?</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
     <t>misc</t>
+  </si>
+  <si>
+    <t>peer and family environment?</t>
+  </si>
+  <si>
+    <t>Moore et al 2017, Song et al 2024, Christina et al 2021; Mullan 2023, Li 2024</t>
+  </si>
+  <si>
+    <t>home environment</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other MH problems </t>
+  </si>
+  <si>
+    <t>Cairns et al 2014; Lin (emotion regulation)</t>
+  </si>
+  <si>
+    <t>Robson et al 2020; Kostyrka-Allcho 2020; Lin (emotion regulation)</t>
+  </si>
+  <si>
+    <t>family conflict</t>
+  </si>
+  <si>
+    <t>Pedersen (ns), Lin</t>
+  </si>
+  <si>
+    <t>CRPBI (subscales), parental monitoring, youth self report, educational involvement, academic socialization</t>
+  </si>
+  <si>
+    <t>Relationship with parents</t>
+  </si>
+  <si>
+    <t>**add**</t>
+  </si>
+  <si>
+    <t>Manuele et al 2023; Lin</t>
+  </si>
+  <si>
+    <t>Manuele et al 2023; Lin, Liu 2024</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>definition of EU is broad - perhaps hard to categorise what counts as uncertainty</t>
+  </si>
+  <si>
+    <t>how many reviews included interactions? How many specified sex v gender?</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>cairns, liu M 2022, mccrae (only qual), song 2024, tacchi 2019</t>
+  </si>
+  <si>
+    <t>found in ABCD but not used - too much missing data for substance use given the gating, in combination with v v few cases; some questionnaires just not administered at baseline or Y2</t>
+  </si>
+  <si>
+    <t>Parental acceptance</t>
+  </si>
+  <si>
+    <t>crpbi_y_ss_parent</t>
+  </si>
+  <si>
+    <t>p_acceptance</t>
+  </si>
+  <si>
+    <t>ce_y_crpbi</t>
+  </si>
+  <si>
+    <t>[youth-reported] CRPBI - Acceptance Subscale Mean of Report by Parent Completing Protocol by youth. Validation: Minimum of 4 items answered</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1196,6 +1130,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,11 +1469,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C22E8D-E591-49C4-9732-3DC9659BEDDB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F41" sqref="F41"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1549,6 +1486,7 @@
     <col min="6" max="6" width="70.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.54296875" customWidth="1"/>
     <col min="8" max="8" width="12.90625" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1559,25 +1497,25 @@
         <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1585,25 +1523,25 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1611,25 +1549,25 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1637,54 +1575,54 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I5" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1692,546 +1630,544 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>331</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>181</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>201</v>
+        <v>142</v>
+      </c>
+      <c r="H9" t="s">
+        <v>181</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
-      </c>
-      <c r="J9"/>
+        <v>181</v>
+      </c>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="9"/>
+        <v>181</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H12" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
         <v>98</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" t="s">
-        <v>201</v>
-      </c>
-      <c r="I13" t="s">
-        <v>201</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>316</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>141</v>
+        <v>319</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
         <v>151</v>
       </c>
-      <c r="C21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" t="s">
-        <v>191</v>
-      </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J23"/>
     </row>
     <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -2239,485 +2175,309 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="2" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J27"/>
     </row>
     <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="I28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>200</v>
+        <v>141</v>
+      </c>
+      <c r="H29" t="s">
+        <v>180</v>
       </c>
       <c r="I29" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>154</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>200</v>
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" t="s">
+        <v>180</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>200</v>
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" t="s">
+        <v>180</v>
       </c>
       <c r="I32" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>159</v>
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I33" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
+      </c>
+      <c r="I34" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" t="s">
-        <v>158</v>
-      </c>
-      <c r="H39" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" t="s">
-        <v>201</v>
-      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" t="s">
-        <v>158</v>
-      </c>
-      <c r="H40" t="s">
-        <v>200</v>
-      </c>
-      <c r="I40" t="s">
-        <v>201</v>
-      </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42"/>
-    </row>
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
+      <c r="A43" s="8"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="E43" s="1"/>
@@ -2740,9 +2500,17 @@
       <c r="F45" s="1"/>
       <c r="G45"/>
     </row>
+    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J45">
-    <sortCondition descending="1" ref="H34:H45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
+    <sortCondition descending="1" ref="I20:I47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2751,94 +2519,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C4499-083E-41C8-8741-BF855C7CD617}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="97.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2814544-A32F-4335-97C7-842097C9E315}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A39" sqref="A39"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="15" customWidth="1"/>
     <col min="4" max="4" width="42.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.26953125" style="1" customWidth="1"/>
@@ -2846,910 +2696,853 @@
     <col min="8" max="8" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="B16" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>236</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>324</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>317</v>
+        <v>216</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="B28" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="B29" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="B30" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="174" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="B31" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="C33" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>292</v>
+      <c r="A35" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>312</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>249</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>250</v>
+        <v>284</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G42" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
-    <sortCondition ref="B1:B42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H10">
+    <sortCondition ref="C2:C10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/envRS_datadict.xlsx
+++ b/envRS_datadict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eilee\Desktop\PhD\Year 3\envRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCE03E4-B55F-4CDD-91C3-3DCF26D85860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BBB3BD-74A5-4B89-9D4E-1F6A988A12C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37A72D85-F0C6-4E36-B57B-427F300141F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37A72D85-F0C6-4E36-B57B-427F300141F0}"/>
   </bookViews>
   <sheets>
     <sheet name="included in envRS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="320">
   <si>
     <t>RISK FACTOR</t>
   </si>
@@ -208,9 +208,6 @@
     <t>[parent-report] witnessed someone shot or stabbed in the community (related to community safety)</t>
   </si>
   <si>
-    <t>[parent-report] endorsed any of the following: ksads_ptsd_raw_764_p, ksads_ptsd_raw_765_p [threated to kill - surely this should be expanded??]</t>
-  </si>
-  <si>
     <t>[parent-report] endorsed any of the following: ksads_ptsd_raw_761_p, ksads_ptsd_raw_762_p, ksads_ptsd_raw_763_p</t>
   </si>
   <si>
@@ -998,6 +995,9 @@
   </si>
   <si>
     <t>[youth-reported] CRPBI - Acceptance Subscale Mean of Report by Parent Completing Protocol by youth. Validation: Minimum of 4 items answered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[parent-report] endorsed any of the following: ksads_ptsd_raw_764_p, ksads_ptsd_raw_765_p </t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1473,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1500,22 +1500,22 @@
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1532,16 +1532,16 @@
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1558,16 +1558,16 @@
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1584,16 +1584,16 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1607,7 +1607,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -1616,13 +1616,13 @@
         <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1636,7 +1636,7 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -1645,13 +1645,13 @@
         <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -1666,7 +1666,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -1675,13 +1675,13 @@
         <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -1701,124 +1701,124 @@
         <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -1827,28 +1827,28 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1856,51 +1856,51 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -1909,28 +1909,28 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1944,230 +1944,230 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
         <v>120</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" t="s">
         <v>315</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" t="s">
         <v>316</v>
-      </c>
-      <c r="C19" t="s">
-        <v>318</v>
-      </c>
-      <c r="D19" t="s">
-        <v>317</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
         <v>124</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
         <v>132</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>133</v>
       </c>
-      <c r="C21" t="s">
-        <v>134</v>
-      </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
         <v>169</v>
       </c>
-      <c r="B23" t="s">
-        <v>170</v>
-      </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
         <v>94</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>95</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -2175,54 +2175,54 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
         <v>111</v>
-      </c>
-      <c r="D25" t="s">
-        <v>112</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
         <v>107</v>
       </c>
-      <c r="B26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
-      </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="2" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
@@ -2230,28 +2230,28 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
         <v>117</v>
       </c>
-      <c r="C27" t="s">
-        <v>118</v>
-      </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J27"/>
     </row>
@@ -2266,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>29</v>
@@ -2275,71 +2275,71 @@
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
         <v>114</v>
       </c>
-      <c r="B29" t="s">
-        <v>115</v>
-      </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
         <v>128</v>
       </c>
-      <c r="C30" t="s">
-        <v>129</v>
-      </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -2353,7 +2353,7 @@
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>47</v>
@@ -2362,13 +2362,13 @@
         <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J31" s="7"/>
     </row>
@@ -2383,7 +2383,7 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>47</v>
@@ -2392,13 +2392,13 @@
         <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J32" s="9"/>
     </row>
@@ -2413,7 +2413,7 @@
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>47</v>
@@ -2422,13 +2422,13 @@
         <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -2442,22 +2442,22 @@
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -2534,63 +2534,63 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B11" s="17"/>
       <c r="D11" s="1"/>
@@ -2639,23 +2639,23 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -2663,7 +2663,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2701,107 +2701,107 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2809,42 +2809,42 @@
         <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -2852,65 +2852,65 @@
         <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -2918,65 +2918,65 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -2984,91 +2984,91 @@
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3076,65 +3076,65 @@
         <v>4</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -3142,19 +3142,19 @@
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3162,45 +3162,45 @@
         <v>8</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -3208,92 +3208,92 @@
         <v>12</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="F24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="G25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -3301,22 +3301,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -3324,19 +3324,19 @@
         <v>2</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3344,22 +3344,22 @@
         <v>3</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="F30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3367,42 +3367,42 @@
         <v>7</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -3410,22 +3410,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H33" s="1"/>
     </row>
@@ -3434,16 +3434,16 @@
         <v>16</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3451,16 +3451,16 @@
         <v>17</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3468,16 +3468,16 @@
         <v>15</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3485,59 +3485,59 @@
         <v>14</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
